--- a/ReportingIndu.xlsx
+++ b/ReportingIndu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E0789-F857-4D53-86CA-DB8E5630532C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E80737-D9E4-4316-A3A8-9BA31B269533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -349,15 +349,6 @@
     <t>INDU_SANS_NOTIFICATION_SAISI_LE</t>
   </si>
   <si>
-    <t>\RETOUR_VALIDATION_DE_PRESAISIES_INDUS</t>
-  </si>
-  <si>
-    <t>/RETOUR_VALIDATION_DE_PRESAISIES_INDUS/</t>
-  </si>
-  <si>
-    <t>Suivi du traitement validation</t>
-  </si>
-  <si>
     <t>.xlsb430</t>
   </si>
   <si>
@@ -374,6 +365,24 @@
   </si>
   <si>
     <t>Critère d'archivage</t>
+  </si>
+  <si>
+    <t>Suivi_traitement_d</t>
+  </si>
+  <si>
+    <t>Trame des presaisies d</t>
+  </si>
+  <si>
+    <t>/RETOUR_VALIDATIONS_DES_PRESAISIES_INDUS/</t>
+  </si>
+  <si>
+    <t>\RETOUR_VALIDATIONS_DES_PRESAISIES_INDUS</t>
+  </si>
+  <si>
+    <t>Encaissement</t>
+  </si>
+  <si>
+    <t>Encaissement6</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +442,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -446,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -459,6 +474,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,10 +793,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,245 +804,242 @@
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="76.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="47.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" customWidth="1"/>
-    <col min="7" max="7" width="54" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="75.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="54" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="54" customWidth="1"/>
     <col min="10" max="10" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="C1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="11">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="11">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="I1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="8">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>4</v>
+      <c r="I3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C8" s="2">
         <v>414</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="2">
-        <v>528</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1032,7 +1048,7 @@
         <v>82</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>82</v>
@@ -1041,42 +1057,42 @@
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="2">
-        <v>429</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2">
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1084,124 +1100,127 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2">
-        <v>427</v>
+        <v>528</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2">
+        <v>429</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2">
+        <v>427</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H13" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="5">
-        <v>528</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1209,31 +1228,28 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1241,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5">
         <v>528</v>
@@ -1250,22 +1266,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1273,154 +1289,160 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5">
+        <v>528</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C18" s="5">
         <v>527</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H18" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" t="s">
-        <v>64</v>
-      </c>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1644,7 +1666,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,31 +1686,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" t="s">
-        <v>112</v>
-      </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
         <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingIndu.xlsx
+++ b/ReportingIndu.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E80737-D9E4-4316-A3A8-9BA31B269533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Feuil4" sheetId="5" r:id="rId5"/>
     <sheet name="Feuil6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,8 +387,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +405,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,13 +467,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -477,7 +480,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,12 +799,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,93 +821,93 @@
     <col min="10" max="10" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="11">
-        <v>0</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="10">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="10">
         <v>2</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>2</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -999,99 +1007,99 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="12">
         <v>414</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="12">
         <v>2</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:10" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="12">
         <v>2</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1127,35 +1135,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="12">
         <v>429</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="12">
         <v>2</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1191,258 +1199,258 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>2</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>528</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>528</v>
       </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>527</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>1</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="10"/>
+      <c r="I21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1452,12 +1460,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DBD017-CFCD-49AD-A471-C7E764C21DD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,42 +1476,43 @@
     <col min="9" max="9" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="11">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="11">
+        <v>0</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE23A6E-A3A6-42EC-9D25-70E6C91C2E47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1518,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E7F13E-9FEF-4D85-8AE9-8E1EFED362C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -1626,32 +1635,32 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1661,12 +1670,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0E7137-3810-4C93-9B7A-D50A999DD94A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43608BCC-30E4-4B20-A18D-4ACB2EF9F5D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/ReportingIndu.xlsx
+++ b/ReportingIndu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetOdilon\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D278C1-364D-45EC-BE6F-244EFC22169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Feuil4" sheetId="5" r:id="rId5"/>
     <sheet name="Feuil6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="119">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -119,9 +120,6 @@
   </si>
   <si>
     <t>/RETOUR_INDU_SANS_NOTIFICATION/</t>
-  </si>
-  <si>
-    <t>Indu sans notification saisi le</t>
   </si>
   <si>
     <t>indusansnotif</t>
@@ -354,9 +352,6 @@
     <t>/RETOUR_RELEVE_DE_COMPTE/</t>
   </si>
   <si>
-    <t>Indu Compta</t>
-  </si>
-  <si>
     <t>\RETOUR_RELEVE_DE_COMPTE\</t>
   </si>
   <si>
@@ -382,13 +377,25 @@
   </si>
   <si>
     <t>Encaissement6</t>
+  </si>
+  <si>
+    <t>Compta</t>
+  </si>
+  <si>
+    <t>\RETOUR_VALIDATIONS_DE_PRESAISIES_INDUS</t>
+  </si>
+  <si>
+    <t>INDU_NON_SAISI_MOTIF</t>
+  </si>
+  <si>
+    <t>TRAME PRE-SAISIE INDU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +419,13 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,12 +494,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,12 +813,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,643 +828,766 @@
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="47.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="54" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
     <col min="9" max="9" width="54" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" customWidth="1"/>
+    <col min="12" max="12" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="11">
+        <v>414</v>
+      </c>
+      <c r="D1" s="11">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="11">
+        <v>2</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2">
+        <v>528</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="11">
+        <v>429</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4">
+        <v>528</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4">
+        <v>528</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4">
+        <v>527</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7">
+        <v>427</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="10">
-        <v>2</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="J20" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="K20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="12">
-        <v>414</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="12">
-        <v>2</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="12">
-        <v>2</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="2">
-        <v>528</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="12">
-        <v>429</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="12">
-        <v>2</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2">
-        <v>427</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="4">
-        <v>528</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="4">
-        <v>528</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="4">
-        <v>527</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1460,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1476,32 +1613,32 @@
     <col min="9" max="9" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11">
-        <v>0</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="10">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="11">
-        <v>0</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="10">
+        <v>0</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1512,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1527,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -1579,31 +1716,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1611,16 +1748,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
@@ -1629,10 +1766,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s">
         <v>97</v>
-      </c>
-      <c r="J16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1640,28 +1777,28 @@
         <v>0</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1670,12 +1807,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,31 +1832,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/ReportingIndu.xlsx
+++ b/ReportingIndu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetOdilon\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D278C1-364D-45EC-BE6F-244EFC22169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227BA160-64E2-433F-8F20-54F85417F6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="115">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -87,18 +87,6 @@
   </si>
   <si>
     <t>INDUS_ENTRAIN</t>
-  </si>
-  <si>
-    <t>\RETOUR_FRAUDE_HTP</t>
-  </si>
-  <si>
-    <t>/RETOUR_FRAUDE_HTP/</t>
-  </si>
-  <si>
-    <t>indufraude</t>
-  </si>
-  <si>
-    <t>Etat</t>
   </si>
   <si>
     <t>\RETOUR_INDU_OPTIQUE</t>
@@ -817,8 +805,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C1" s="11">
         <v>414</v>
@@ -851,28 +839,28 @@
         <v>0</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H1" s="11">
         <v>2</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,37 +868,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="11">
         <v>2</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="K2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -918,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2">
         <v>528</v>
@@ -927,28 +915,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -956,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" s="11">
         <v>429</v>
@@ -965,28 +953,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H4" s="11">
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -994,37 +982,37 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1032,34 +1020,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4">
         <v>528</v>
@@ -1076,28 +1064,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1105,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -1114,28 +1102,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1143,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4">
         <v>528</v>
@@ -1152,28 +1140,28 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1181,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4">
         <v>527</v>
@@ -1190,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1316,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>4</v>
@@ -1342,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -1371,34 +1359,34 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1406,37 +1394,37 @@
         <v>0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H16" s="6">
         <v>2</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1444,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7">
         <v>427</v>
@@ -1453,28 +1441,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1482,34 +1470,34 @@
         <v>0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1517,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="G19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1552,37 +1540,37 @@
         <v>0</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D20" s="13">
         <v>0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
       </c>
       <c r="I20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>116</v>
-      </c>
       <c r="L20" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1599,10 +1587,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,35 +1599,45 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="34.85546875" customWidth="1"/>
+    <col min="10" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="10">
-        <v>0</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>19</v>
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="11">
+        <v>414</v>
+      </c>
+      <c r="D1" s="11">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="11">
+        <v>2</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1716,31 +1714,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1748,28 +1746,28 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1777,28 +1775,28 @@
         <v>0</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1832,31 +1830,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
